--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_0_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_0_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1346.496145242341</v>
+        <v>560138.3716897396</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1346.496145242341</v>
+        <v>560138.3716897396</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98333.88625764393</v>
+        <v>6866397.935929357</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98333.88625764393</v>
+        <v>6866397.935929357</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1646729455.933804</v>
+        <v>59358165.61854965</v>
       </c>
     </row>
   </sheetData>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
-        <v>97.57174326205235</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W3" t="n">
-        <v>432.3731429098285</v>
+        <v>208.7364590576108</v>
       </c>
       <c r="X3" t="n">
         <v>419.8627394453875</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.982233028348955</v>
+        <v>6.982233028349953</v>
       </c>
       <c r="S5" t="n">
         <v>406.371246055701</v>
@@ -983,25 +983,25 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>276.4517849848955</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U6" t="n">
-        <v>230.78053410609</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V6" t="n">
-        <v>14.51066719152016</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W6" t="n">
-        <v>32.37314290982852</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X6" t="n">
         <v>419.8627394453875</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.982233028349953</v>
+        <v>6.982233028349856</v>
       </c>
       <c r="S8" t="n">
         <v>406.371246055701</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>418.2912050771884</v>
+        <v>248.9980521331243</v>
       </c>
       <c r="S9" t="n">
         <v>427.97673816528</v>
@@ -1274,19 +1274,19 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U9" t="n">
-        <v>230.1719268722241</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V9" t="n">
         <v>14.51066719152016</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3731429098285</v>
+        <v>32.37314290982852</v>
       </c>
       <c r="X9" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="10">
@@ -1432,7 +1432,7 @@
         <v>569.6790825537603</v>
       </c>
       <c r="U11" t="n">
-        <v>648.9106809154906</v>
+        <v>648.9106809154903</v>
       </c>
       <c r="V11" t="n">
         <v>629.8510241668239</v>
@@ -1466,16 +1466,16 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F12" t="n">
-        <v>191.2786412184884</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>309.3479332082327</v>
       </c>
       <c r="T12" t="n">
         <v>396.9842838494889</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>109.9994704652143</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>427.97673816528</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>145.8326240093477</v>
       </c>
       <c r="U15" t="n">
         <v>400.0736870501537</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.982233028349856</v>
+        <v>6.982233028349953</v>
       </c>
       <c r="S17" t="n">
         <v>406.371246055701</v>
@@ -1934,22 +1934,22 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D18" t="n">
-        <v>347.9376868977026</v>
+        <v>333.6430776165644</v>
       </c>
       <c r="E18" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T18" t="n">
-        <v>19.36630485089859</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V18" t="n">
         <v>414.5106671915202</v>
@@ -1997,7 +1997,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="19">
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="W19" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342859982</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>214.7284835185505</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C21" t="n">
         <v>361.0999124455193</v>
@@ -2180,13 +2180,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>396.9842838494889</v>
@@ -2228,13 +2228,13 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>327.4453680143748</v>
       </c>
     </row>
     <row r="22">
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="I22" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>384.5565566463266</v>
+        <v>291.3036106668673</v>
       </c>
       <c r="C24" t="n">
         <v>361.0999124455193</v>
@@ -2411,19 +2411,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F24" t="n">
-        <v>113.0888736658791</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S24" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W24" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>419.8627394453875</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>86.11672794030834</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>361.0999124455193</v>
+        <v>173.3475999972709</v>
       </c>
       <c r="D27" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
-        <v>113.0888736658791</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>427.97673816528</v>
       </c>
       <c r="T27" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V27" t="n">
         <v>414.5106671915202</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11672794030837</v>
+        <v>86.11672794030834</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C30" t="n">
-        <v>361.0999124455193</v>
+        <v>276.4517849848955</v>
       </c>
       <c r="D30" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>169.8081692101008</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V30" t="n">
         <v>414.5106671915202</v>
@@ -2945,7 +2945,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="31">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11672794030834</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>399.8746768730119</v>
       </c>
       <c r="H32" t="n">
-        <v>368.2460042948564</v>
+        <v>368.2460042948566</v>
       </c>
       <c r="I32" t="n">
         <v>0.3935447342857401</v>
@@ -3122,16 +3122,16 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E33" t="n">
-        <v>113.0888736658791</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>427.97673816528</v>
       </c>
       <c r="T33" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>432.3731429098285</v>
+        <v>366.3246325890264</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3353,19 +3353,19 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C36" t="n">
-        <v>361.0999124455193</v>
+        <v>284.6163982676189</v>
       </c>
       <c r="D36" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E36" t="n">
-        <v>216.1861421888335</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H36" t="n">
         <v>312.1045333535693</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U36" t="n">
         <v>400.0736870501537</v>
@@ -3450,43 +3450,43 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>399.8746768730119</v>
       </c>
       <c r="H38" t="n">
-        <v>368.2460042948566</v>
+        <v>368.2460042948564</v>
       </c>
       <c r="I38" t="n">
         <v>0.3935447342857401</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.982233028349953</v>
+        <v>6.982233028349856</v>
       </c>
       <c r="S38" t="n">
         <v>406.371246055701</v>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>219.8736313226152</v>
       </c>
       <c r="C39" t="n">
         <v>361.0999124455193</v>
@@ -3599,16 +3599,16 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F39" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U39" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>414.5106671915202</v>
@@ -3656,7 +3656,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y39" t="n">
-        <v>232.9460015455853</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="40">
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>6.982233028349953</v>
       </c>
       <c r="S41" t="n">
-        <v>406.371246055701</v>
+        <v>406.3712460557012</v>
       </c>
       <c r="T41" t="n">
         <v>569.6790825537603</v>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>361.0999124455193</v>
@@ -3839,13 +3839,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>236.1989555269382</v>
       </c>
       <c r="H42" t="n">
-        <v>309.347933208233</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="U43" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>399.8746768730119</v>
       </c>
       <c r="H44" t="n">
-        <v>368.2460042948566</v>
+        <v>368.2460042948564</v>
       </c>
       <c r="I44" t="n">
         <v>0.3935447342857401</v>
@@ -4036,7 +4036,7 @@
         <v>406.371246055701</v>
       </c>
       <c r="T44" t="n">
-        <v>569.6790825537603</v>
+        <v>569.6790825537602</v>
       </c>
       <c r="U44" t="n">
         <v>648.9106809154903</v>
@@ -4061,22 +4061,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>216.6110326362813</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T45" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U45" t="n">
-        <v>400.0736870501537</v>
+        <v>182.2847641895066</v>
       </c>
       <c r="V45" t="n">
         <v>414.5106671915202</v>
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4336,22 +4336,22 @@
         <v>142.72</v>
       </c>
       <c r="J2" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K2" t="n">
-        <v>1732.689961986976</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L2" t="n">
-        <v>2695.958106402465</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M2" t="n">
-        <v>3206.8069351314</v>
+        <v>3301.702437734297</v>
       </c>
       <c r="N2" t="n">
-        <v>3820.027254906163</v>
+        <v>3914.92275750906</v>
       </c>
       <c r="O2" t="n">
-        <v>5420.718390895065</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P2" t="n">
         <v>6282.306354802172</v>
@@ -4391,16 +4391,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>957.4769117224993</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="C3" t="n">
-        <v>592.729525413894</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D3" t="n">
-        <v>241.2773164263155</v>
+        <v>831.9203429896863</v>
       </c>
       <c r="E3" t="n">
-        <v>142.72</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F3" t="n">
         <v>142.72</v>
@@ -4454,13 +4454,13 @@
         <v>2221.74688659255</v>
       </c>
       <c r="W3" t="n">
-        <v>1785.006338198784</v>
+        <v>2010.901978453549</v>
       </c>
       <c r="X3" t="n">
-        <v>1360.902560981221</v>
+        <v>1586.798201235986</v>
       </c>
       <c r="Y3" t="n">
-        <v>957.4769117224993</v>
+        <v>1183.372551977265</v>
       </c>
     </row>
     <row r="4">
@@ -4488,13 +4488,13 @@
         <v>142.72</v>
       </c>
       <c r="H4" t="n">
-        <v>142.72</v>
+        <v>327.566531212588</v>
       </c>
       <c r="I4" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="J4" t="n">
-        <v>625.7065938790994</v>
+        <v>652.9178883639495</v>
       </c>
       <c r="K4" t="n">
         <v>652.9178883639495</v>
@@ -4552,19 +4552,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C5" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D5" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E5" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F5" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G5" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H5" t="n">
         <v>143.117519933622</v>
@@ -4573,52 +4573,52 @@
         <v>142.72</v>
       </c>
       <c r="J5" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K5" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L5" t="n">
-        <v>2150.764973955147</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M5" t="n">
-        <v>2661.613802684082</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N5" t="n">
-        <v>3960.705181423565</v>
+        <v>3914.922757509061</v>
       </c>
       <c r="O5" t="n">
-        <v>4913.747725445522</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P5" t="n">
-        <v>6282.306354802172</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q5" t="n">
         <v>7136</v>
       </c>
       <c r="R5" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S5" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T5" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U5" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V5" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W5" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X5" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y5" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="6">
@@ -4628,25 +4628,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1548.11993828587</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C6" t="n">
-        <v>1183.372551977265</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="D6" t="n">
-        <v>831.9203429896863</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="E6" t="n">
-        <v>485.7869114524009</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="F6" t="n">
-        <v>142.72</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="G6" t="n">
-        <v>142.72</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="H6" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I6" t="n">
         <v>142.72</v>
@@ -4685,19 +4685,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U6" t="n">
-        <v>2811.447715012332</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V6" t="n">
-        <v>2796.790475424938</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W6" t="n">
-        <v>2764.090331071576</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X6" t="n">
-        <v>2339.986553854013</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y6" t="n">
-        <v>1936.560904595291</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="7">
@@ -4707,31 +4707,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="C7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="D7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="E7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="F7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="G7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="H7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="I7" t="n">
-        <v>415.7050891037248</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="J7" t="n">
-        <v>502.6916829828242</v>
+        <v>652.9178883639495</v>
       </c>
       <c r="K7" t="n">
         <v>652.9178883639495</v>
@@ -4758,25 +4758,25 @@
         <v>142.72</v>
       </c>
       <c r="S7" t="n">
-        <v>142.72</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="T7" t="n">
-        <v>142.72</v>
+        <v>405.461661480959</v>
       </c>
       <c r="U7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="V7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="W7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="X7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
     </row>
     <row r="8">
@@ -4810,25 +4810,25 @@
         <v>142.72</v>
       </c>
       <c r="J8" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K8" t="n">
-        <v>1559.209423000208</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L8" t="n">
-        <v>3072.830189549852</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M8" t="n">
-        <v>3583.679018278787</v>
+        <v>3662.807001082612</v>
       </c>
       <c r="N8" t="n">
-        <v>4882.77039701827</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O8" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P8" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q8" t="n">
         <v>7136</v>
@@ -4871,7 +4871,7 @@
         <v>1183.372551977265</v>
       </c>
       <c r="D9" t="n">
-        <v>831.9203429896863</v>
+        <v>831.9203429896864</v>
       </c>
       <c r="E9" t="n">
         <v>485.7869114524009</v>
@@ -4913,25 +4913,25 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R9" t="n">
-        <v>3877.853327255624</v>
+        <v>4048.856512047608</v>
       </c>
       <c r="S9" t="n">
-        <v>3445.553591735139</v>
+        <v>3616.556776527123</v>
       </c>
       <c r="T9" t="n">
-        <v>3044.559365624544</v>
+        <v>3215.562550416528</v>
       </c>
       <c r="U9" t="n">
-        <v>2812.062469794015</v>
+        <v>2811.447715012333</v>
       </c>
       <c r="V9" t="n">
-        <v>2797.405230206621</v>
+        <v>2796.790475424938</v>
       </c>
       <c r="W9" t="n">
-        <v>2360.664681812854</v>
+        <v>2764.090331071576</v>
       </c>
       <c r="X9" t="n">
-        <v>1936.560904595291</v>
+        <v>2339.986553854013</v>
       </c>
       <c r="Y9" t="n">
         <v>1936.560904595291</v>
@@ -4944,34 +4944,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.9292886664143</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="C10" t="n">
-        <v>565.9312944848501</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="D10" t="n">
-        <v>565.9312944848501</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="E10" t="n">
-        <v>565.9312944848501</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="F10" t="n">
-        <v>565.9312944848501</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="G10" t="n">
-        <v>565.9312944848501</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="H10" t="n">
-        <v>565.9312944848501</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="I10" t="n">
-        <v>565.9312944848501</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="J10" t="n">
-        <v>652.9178883639495</v>
+        <v>297.0054242125015</v>
       </c>
       <c r="K10" t="n">
-        <v>652.9178883639495</v>
+        <v>607.6936930775635</v>
       </c>
       <c r="L10" t="n">
         <v>652.9178883639495</v>
@@ -4995,25 +4995,25 @@
         <v>142.72</v>
       </c>
       <c r="S10" t="n">
-        <v>142.72</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="T10" t="n">
-        <v>142.72</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="U10" t="n">
-        <v>142.72</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="V10" t="n">
-        <v>142.72</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="W10" t="n">
-        <v>216.76265032109</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="X10" t="n">
-        <v>216.76265032109</v>
+        <v>210.0188303334022</v>
       </c>
       <c r="Y10" t="n">
-        <v>328.1719510001222</v>
+        <v>210.0188303334022</v>
       </c>
     </row>
     <row r="11">
@@ -5050,22 +5050,22 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K11" t="n">
-        <v>2058.933492682376</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L11" t="n">
-        <v>3083.751580811441</v>
+        <v>2657.735639404691</v>
       </c>
       <c r="M11" t="n">
-        <v>4269.550077243507</v>
+        <v>3168.584468133626</v>
       </c>
       <c r="N11" t="n">
-        <v>4882.77039701827</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O11" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P11" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q11" t="n">
         <v>7136</v>
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1860.592598092166</v>
+        <v>1548.11993828587</v>
       </c>
       <c r="C12" t="n">
-        <v>1495.845211783561</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D12" t="n">
-        <v>1144.393002795983</v>
+        <v>831.9203429896864</v>
       </c>
       <c r="E12" t="n">
-        <v>798.259571258697</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F12" t="n">
-        <v>605.0488225531531</v>
+        <v>142.72</v>
       </c>
       <c r="G12" t="n">
-        <v>605.0488225531531</v>
+        <v>142.72</v>
       </c>
       <c r="H12" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I12" t="n">
         <v>142.72</v>
@@ -5153,25 +5153,25 @@
         <v>4300.369696020461</v>
       </c>
       <c r="S12" t="n">
-        <v>4300.369696020461</v>
+        <v>3987.897036214165</v>
       </c>
       <c r="T12" t="n">
-        <v>3899.375469909866</v>
+        <v>3586.90281010357</v>
       </c>
       <c r="U12" t="n">
-        <v>3495.26063450567</v>
+        <v>3182.787974699374</v>
       </c>
       <c r="V12" t="n">
-        <v>3076.562990877872</v>
+        <v>2764.090331071576</v>
       </c>
       <c r="W12" t="n">
-        <v>3076.562990877872</v>
+        <v>2764.090331071576</v>
       </c>
       <c r="X12" t="n">
-        <v>2652.459213660309</v>
+        <v>2339.986553854013</v>
       </c>
       <c r="Y12" t="n">
-        <v>2249.033564401587</v>
+        <v>1936.560904595291</v>
       </c>
     </row>
     <row r="13">
@@ -5199,7 +5199,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="H13" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="I13" t="n">
         <v>142.72</v>
@@ -5263,19 +5263,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C14" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D14" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F14" t="n">
-        <v>918.9969958607638</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G14" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H14" t="n">
         <v>143.117519933622</v>
@@ -5284,52 +5284,52 @@
         <v>142.72</v>
       </c>
       <c r="J14" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K14" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L14" t="n">
-        <v>2150.764973955147</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M14" t="n">
-        <v>3030.925928914738</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N14" t="n">
-        <v>4330.017307654221</v>
+        <v>4286.948712118965</v>
       </c>
       <c r="O14" t="n">
-        <v>5283.059851676178</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P14" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q14" t="n">
         <v>7136</v>
       </c>
       <c r="R14" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S14" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T14" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U14" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V14" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W14" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X14" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y14" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.0301715236731</v>
+        <v>822.7244907061502</v>
       </c>
       <c r="C15" t="n">
-        <v>605.2827852150676</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="D15" t="n">
-        <v>253.8305762274892</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="E15" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="F15" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="G15" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="H15" t="n">
         <v>142.72</v>
@@ -5393,22 +5393,22 @@
         <v>3445.553591735139</v>
       </c>
       <c r="T15" t="n">
-        <v>3445.553591735139</v>
+        <v>3298.247910917616</v>
       </c>
       <c r="U15" t="n">
-        <v>3041.438756330943</v>
+        <v>2894.13307551342</v>
       </c>
       <c r="V15" t="n">
-        <v>2622.741112703145</v>
+        <v>2475.435431885622</v>
       </c>
       <c r="W15" t="n">
-        <v>2186.000564309379</v>
+        <v>2038.694883491856</v>
       </c>
       <c r="X15" t="n">
-        <v>1761.896787091815</v>
+        <v>1614.591106274293</v>
       </c>
       <c r="Y15" t="n">
-        <v>1358.471137833094</v>
+        <v>1211.165457015571</v>
       </c>
     </row>
     <row r="16">
@@ -5472,10 +5472,10 @@
         <v>229.7065938790994</v>
       </c>
       <c r="T16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="U16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V16" t="n">
         <v>142.72</v>
@@ -5521,25 +5521,25 @@
         <v>142.72</v>
       </c>
       <c r="J17" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K17" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L17" t="n">
-        <v>2150.764973955147</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M17" t="n">
-        <v>3069.148395912513</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N17" t="n">
-        <v>3682.368715687277</v>
+        <v>3820.027254906164</v>
       </c>
       <c r="O17" t="n">
-        <v>5283.059851676178</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P17" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q17" t="n">
         <v>7136</v>
@@ -5576,25 +5576,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2190.308467615258</v>
+        <v>991.5523141779152</v>
       </c>
       <c r="C18" t="n">
-        <v>1825.561081306653</v>
+        <v>626.8049278693097</v>
       </c>
       <c r="D18" t="n">
-        <v>1474.108872319075</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="E18" t="n">
-        <v>1127.975440781789</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="F18" t="n">
-        <v>784.9085293293883</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="G18" t="n">
-        <v>457.9771043975448</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="H18" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I18" t="n">
         <v>142.72</v>
@@ -5624,28 +5624,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R18" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S18" t="n">
-        <v>3877.853327255624</v>
+        <v>3868.069960499976</v>
       </c>
       <c r="T18" t="n">
-        <v>3858.291403163807</v>
+        <v>3467.075734389381</v>
       </c>
       <c r="U18" t="n">
-        <v>3858.291403163807</v>
+        <v>3062.960898985185</v>
       </c>
       <c r="V18" t="n">
-        <v>3439.593759536009</v>
+        <v>2644.263255357387</v>
       </c>
       <c r="W18" t="n">
-        <v>3002.853211142242</v>
+        <v>2207.522706963621</v>
       </c>
       <c r="X18" t="n">
-        <v>2578.749433924679</v>
+        <v>1783.418929746058</v>
       </c>
       <c r="Y18" t="n">
-        <v>2578.749433924679</v>
+        <v>1379.993280487336</v>
       </c>
     </row>
     <row r="19">
@@ -5715,7 +5715,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W19" t="n">
         <v>142.72</v>
@@ -5737,40 +5737,40 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C20" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D20" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E20" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F20" t="n">
-        <v>918.9969958607638</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G20" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H20" t="n">
-        <v>143.117519933623</v>
+        <v>143.1175199336222</v>
       </c>
       <c r="I20" t="n">
         <v>142.72</v>
       </c>
       <c r="J20" t="n">
-        <v>747.627591725829</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K20" t="n">
-        <v>1457.333958073697</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L20" t="n">
-        <v>1457.333958073697</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M20" t="n">
-        <v>1968.182786802633</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N20" t="n">
-        <v>3267.274165542116</v>
+        <v>3601.077653154245</v>
       </c>
       <c r="O20" t="n">
         <v>4867.965301531018</v>
@@ -5782,28 +5782,28 @@
         <v>7136</v>
       </c>
       <c r="R20" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S20" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T20" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U20" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V20" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W20" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X20" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y20" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="21">
@@ -5813,25 +5813,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1548.11993828587</v>
+        <v>2337.380185770867</v>
       </c>
       <c r="C21" t="n">
-        <v>1183.372551977265</v>
+        <v>1972.632799462261</v>
       </c>
       <c r="D21" t="n">
-        <v>831.9203429896864</v>
+        <v>1621.180590474683</v>
       </c>
       <c r="E21" t="n">
-        <v>485.7869114524009</v>
+        <v>1275.047158937397</v>
       </c>
       <c r="F21" t="n">
-        <v>142.72</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="G21" t="n">
-        <v>142.72</v>
+        <v>605.0488225531531</v>
       </c>
       <c r="H21" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I21" t="n">
         <v>142.72</v>
@@ -5861,28 +5861,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R21" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S21" t="n">
-        <v>3445.553591735139</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T21" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U21" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="V21" t="n">
-        <v>2625.861721996746</v>
+        <v>3480.677826282068</v>
       </c>
       <c r="W21" t="n">
-        <v>2189.12117360298</v>
+        <v>3480.677826282068</v>
       </c>
       <c r="X21" t="n">
-        <v>1765.017396385416</v>
+        <v>3056.574049064504</v>
       </c>
       <c r="Y21" t="n">
-        <v>1765.017396385416</v>
+        <v>2725.821152080287</v>
       </c>
     </row>
     <row r="22">
@@ -5910,7 +5910,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="H22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="I22" t="n">
         <v>142.72</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C23" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D23" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F23" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G23" t="n">
-        <v>515.0831808375169</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H23" t="n">
         <v>143.117519933622</v>
@@ -5998,49 +5998,49 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K23" t="n">
-        <v>2058.933492682376</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L23" t="n">
-        <v>3083.751580811439</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M23" t="n">
-        <v>4269.550077243505</v>
+        <v>3662.807001082612</v>
       </c>
       <c r="N23" t="n">
-        <v>4882.770397018268</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O23" t="n">
-        <v>5835.812941040225</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P23" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q23" t="n">
         <v>7136</v>
       </c>
       <c r="R23" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S23" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T23" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U23" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V23" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W23" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X23" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y23" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="24">
@@ -6050,25 +6050,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>973.1507808172739</v>
+        <v>2337.380185770867</v>
       </c>
       <c r="C24" t="n">
-        <v>608.4033945086685</v>
+        <v>1972.632799462261</v>
       </c>
       <c r="D24" t="n">
-        <v>256.9511855210901</v>
+        <v>1621.180590474683</v>
       </c>
       <c r="E24" t="n">
-        <v>256.9511855210901</v>
+        <v>1275.047158937397</v>
       </c>
       <c r="F24" t="n">
-        <v>142.72</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="G24" t="n">
-        <v>142.72</v>
+        <v>605.0488225531531</v>
       </c>
       <c r="H24" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I24" t="n">
         <v>142.72</v>
@@ -6101,25 +6101,25 @@
         <v>3877.853327255624</v>
       </c>
       <c r="S24" t="n">
-        <v>3445.553591735139</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="T24" t="n">
-        <v>3044.559365624544</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="U24" t="n">
-        <v>3044.559365624544</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="V24" t="n">
-        <v>2625.861721996746</v>
+        <v>3459.155683627826</v>
       </c>
       <c r="W24" t="n">
-        <v>2189.12117360298</v>
+        <v>3459.155683627826</v>
       </c>
       <c r="X24" t="n">
-        <v>1765.017396385416</v>
+        <v>3035.051906410262</v>
       </c>
       <c r="Y24" t="n">
-        <v>1361.591747126695</v>
+        <v>2631.626257151541</v>
       </c>
     </row>
     <row r="25">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="C25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="D25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="E25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="F25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H25" t="n">
         <v>142.72</v>
@@ -6153,52 +6153,52 @@
         <v>142.72</v>
       </c>
       <c r="J25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="L25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="M25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="N25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="O25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="P25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Q25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="R25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="S25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="U25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="W25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Y25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2604.922907272605</v>
+        <v>2604.922907272603</v>
       </c>
       <c r="C26" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.90818177463</v>
       </c>
       <c r="D26" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077812</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798147</v>
       </c>
       <c r="F26" t="n">
-        <v>918.9969958607638</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G26" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H26" t="n">
         <v>143.117519933622</v>
@@ -6232,52 +6232,52 @@
         <v>142.72</v>
       </c>
       <c r="J26" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K26" t="n">
-        <v>1613.047605616181</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L26" t="n">
-        <v>2520.077100185803</v>
+        <v>2479.921892974005</v>
       </c>
       <c r="M26" t="n">
-        <v>3030.925928914738</v>
+        <v>2990.77072170294</v>
       </c>
       <c r="N26" t="n">
-        <v>4330.017307654221</v>
+        <v>4289.862100442423</v>
       </c>
       <c r="O26" t="n">
-        <v>5283.059851676178</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P26" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q26" t="n">
         <v>7136</v>
       </c>
       <c r="R26" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365303</v>
       </c>
       <c r="S26" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248433</v>
       </c>
       <c r="T26" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U26" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269392</v>
       </c>
       <c r="V26" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545327</v>
       </c>
       <c r="W26" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.537633635279</v>
       </c>
       <c r="X26" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.27315539218</v>
       </c>
       <c r="Y26" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157022</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>973.1507808172739</v>
+        <v>1358.471137833094</v>
       </c>
       <c r="C27" t="n">
-        <v>608.4033945086685</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D27" t="n">
-        <v>256.9511855210901</v>
+        <v>831.9203429896863</v>
       </c>
       <c r="E27" t="n">
-        <v>142.72</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F27" t="n">
         <v>142.72</v>
@@ -6341,22 +6341,22 @@
         <v>3445.553591735139</v>
       </c>
       <c r="T27" t="n">
-        <v>3044.559365624544</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="U27" t="n">
-        <v>3044.559365624544</v>
+        <v>3041.438756330943</v>
       </c>
       <c r="V27" t="n">
-        <v>2625.861721996746</v>
+        <v>2622.741112703145</v>
       </c>
       <c r="W27" t="n">
-        <v>2189.12117360298</v>
+        <v>2186.000564309379</v>
       </c>
       <c r="X27" t="n">
-        <v>1765.017396385416</v>
+        <v>1761.896787091815</v>
       </c>
       <c r="Y27" t="n">
-        <v>1361.591747126695</v>
+        <v>1358.471137833094</v>
       </c>
     </row>
     <row r="28">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="C28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="D28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="F28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="H28" t="n">
         <v>142.72</v>
@@ -6390,52 +6390,52 @@
         <v>142.72</v>
       </c>
       <c r="J28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="K28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="L28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="M28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="N28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="O28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="P28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="Q28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="R28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="S28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="T28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="U28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="V28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="W28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="X28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="Y28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C29" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D29" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E29" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F29" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G29" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H29" t="n">
         <v>143.117519933622</v>
@@ -6469,52 +6469,52 @@
         <v>142.72</v>
       </c>
       <c r="J29" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K29" t="n">
-        <v>1490.851027277097</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L29" t="n">
-        <v>2397.880521846719</v>
+        <v>2871.675011344852</v>
       </c>
       <c r="M29" t="n">
-        <v>3583.679018278785</v>
+        <v>3382.523840073788</v>
       </c>
       <c r="N29" t="n">
-        <v>4882.770397018268</v>
+        <v>4681.615218813271</v>
       </c>
       <c r="O29" t="n">
-        <v>5835.812941040225</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="P29" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q29" t="n">
         <v>7136</v>
       </c>
       <c r="R29" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S29" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T29" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U29" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V29" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W29" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X29" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y29" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="30">
@@ -6524,25 +6524,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1376.576430075995</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C30" t="n">
-        <v>1011.82904376739</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="D30" t="n">
-        <v>660.3768347798116</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="E30" t="n">
-        <v>314.2434032425261</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="F30" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="G30" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="H30" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I30" t="n">
         <v>142.72</v>
@@ -6581,19 +6581,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U30" t="n">
-        <v>3044.559365624544</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V30" t="n">
-        <v>2625.861721996746</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W30" t="n">
-        <v>2189.12117360298</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X30" t="n">
-        <v>1765.017396385416</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y30" t="n">
-        <v>1765.017396385416</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="31">
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="C31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="D31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="E31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="F31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H31" t="n">
         <v>142.72</v>
@@ -6627,52 +6627,52 @@
         <v>142.72</v>
       </c>
       <c r="J31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="L31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="M31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="N31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="O31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="P31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Q31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="R31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="S31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="T31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="U31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="W31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Y31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
     </row>
     <row r="32">
@@ -6685,19 +6685,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C32" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D32" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E32" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F32" t="n">
-        <v>918.9969958607638</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G32" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H32" t="n">
         <v>143.117519933622</v>
@@ -6706,52 +6706,52 @@
         <v>142.72</v>
       </c>
       <c r="J32" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K32" t="n">
-        <v>1490.851027277098</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L32" t="n">
-        <v>2397.880521846721</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M32" t="n">
-        <v>3583.679018278787</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N32" t="n">
-        <v>4882.77039701827</v>
+        <v>4286.948712118965</v>
       </c>
       <c r="O32" t="n">
-        <v>5835.812941040226</v>
+        <v>5239.991256140922</v>
       </c>
       <c r="P32" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q32" t="n">
         <v>7136</v>
       </c>
       <c r="R32" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S32" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T32" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U32" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V32" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W32" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X32" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y32" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="33">
@@ -6761,22 +6761,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>973.1507808172739</v>
+        <v>1863.377042683415</v>
       </c>
       <c r="C33" t="n">
-        <v>608.4033945086685</v>
+        <v>1498.62965637481</v>
       </c>
       <c r="D33" t="n">
-        <v>256.9511855210901</v>
+        <v>1147.177447387231</v>
       </c>
       <c r="E33" t="n">
-        <v>142.72</v>
+        <v>801.0440158499457</v>
       </c>
       <c r="F33" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="G33" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="H33" t="n">
         <v>142.72</v>
@@ -6809,28 +6809,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R33" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S33" t="n">
-        <v>3445.553591735139</v>
+        <v>3868.069960499976</v>
       </c>
       <c r="T33" t="n">
-        <v>3044.559365624544</v>
+        <v>3868.069960499976</v>
       </c>
       <c r="U33" t="n">
-        <v>3044.559365624544</v>
+        <v>3868.069960499976</v>
       </c>
       <c r="V33" t="n">
-        <v>2625.861721996746</v>
+        <v>3449.372316872178</v>
       </c>
       <c r="W33" t="n">
-        <v>2189.12117360298</v>
+        <v>3079.347435469121</v>
       </c>
       <c r="X33" t="n">
-        <v>1765.017396385416</v>
+        <v>2655.243658251557</v>
       </c>
       <c r="Y33" t="n">
-        <v>1361.591747126695</v>
+        <v>2251.818008992836</v>
       </c>
     </row>
     <row r="34">
@@ -6946,16 +6946,16 @@
         <v>534.0291130376557</v>
       </c>
       <c r="K35" t="n">
-        <v>1732.689961986976</v>
+        <v>1243.735479385524</v>
       </c>
       <c r="L35" t="n">
-        <v>2657.735639404691</v>
+        <v>2150.764973955147</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.584468133626</v>
+        <v>2661.613802684082</v>
       </c>
       <c r="N35" t="n">
-        <v>4467.67584687311</v>
+        <v>3820.027254906164</v>
       </c>
       <c r="O35" t="n">
         <v>5420.718390895066</v>
@@ -6998,19 +6998,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1392.54654028851</v>
+        <v>1423.8520496984</v>
       </c>
       <c r="C36" t="n">
-        <v>1027.799153979905</v>
+        <v>1136.360738316967</v>
       </c>
       <c r="D36" t="n">
-        <v>676.3469449923261</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="E36" t="n">
-        <v>457.9771043975448</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="F36" t="n">
-        <v>457.9771043975448</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="G36" t="n">
         <v>457.9771043975448</v>
@@ -7049,25 +7049,25 @@
         <v>4300.369696020461</v>
       </c>
       <c r="S36" t="n">
-        <v>3868.069960499976</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T36" t="n">
-        <v>3868.069960499976</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U36" t="n">
-        <v>3463.95512509578</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="V36" t="n">
-        <v>3045.257481467982</v>
+        <v>3076.562990877872</v>
       </c>
       <c r="W36" t="n">
-        <v>2608.516933074216</v>
+        <v>2639.822442484106</v>
       </c>
       <c r="X36" t="n">
-        <v>2184.413155856652</v>
+        <v>2215.718665266542</v>
       </c>
       <c r="Y36" t="n">
-        <v>1780.987506597931</v>
+        <v>1812.293016007821</v>
       </c>
     </row>
     <row r="37">
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="I37" t="n">
         <v>142.72</v>
@@ -7134,19 +7134,19 @@
         <v>229.7065938790994</v>
       </c>
       <c r="U37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="38">
@@ -7168,10 +7168,10 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F38" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G38" t="n">
-        <v>515.0831808375176</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H38" t="n">
         <v>143.117519933622</v>
@@ -7180,16 +7180,16 @@
         <v>142.72</v>
       </c>
       <c r="J38" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K38" t="n">
-        <v>1243.735479385524</v>
+        <v>852.4263663478685</v>
       </c>
       <c r="L38" t="n">
-        <v>2150.764973955147</v>
+        <v>1759.455860917491</v>
       </c>
       <c r="M38" t="n">
-        <v>2661.613802684082</v>
+        <v>2615.831378769578</v>
       </c>
       <c r="N38" t="n">
         <v>3914.922757509061</v>
@@ -7235,25 +7235,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1548.11993828587</v>
+        <v>1994.313274318466</v>
       </c>
       <c r="C39" t="n">
-        <v>1183.372551977265</v>
+        <v>1629.56588800986</v>
       </c>
       <c r="D39" t="n">
-        <v>831.9203429896864</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="E39" t="n">
-        <v>485.7869114524009</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="F39" t="n">
-        <v>142.72</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="G39" t="n">
-        <v>142.72</v>
+        <v>605.0488225531531</v>
       </c>
       <c r="H39" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I39" t="n">
         <v>142.72</v>
@@ -7286,25 +7286,25 @@
         <v>4300.369696020461</v>
       </c>
       <c r="S39" t="n">
-        <v>3868.069960499976</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T39" t="n">
-        <v>3467.075734389381</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U39" t="n">
-        <v>3062.960898985185</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="V39" t="n">
-        <v>2644.263255357387</v>
+        <v>3480.677826282068</v>
       </c>
       <c r="W39" t="n">
-        <v>2207.522706963621</v>
+        <v>3043.937277888301</v>
       </c>
       <c r="X39" t="n">
-        <v>1783.418929746058</v>
+        <v>2619.833500670738</v>
       </c>
       <c r="Y39" t="n">
-        <v>1548.11993828587</v>
+        <v>2216.407851412016</v>
       </c>
     </row>
     <row r="40">
@@ -7368,13 +7368,13 @@
         <v>229.7065938790994</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W40" t="n">
         <v>142.72</v>
@@ -7417,19 +7417,19 @@
         <v>142.72</v>
       </c>
       <c r="J41" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K41" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L41" t="n">
-        <v>2150.764973955147</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M41" t="n">
-        <v>2661.613802684082</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="N41" t="n">
-        <v>3914.922757509061</v>
+        <v>3776.09988339003</v>
       </c>
       <c r="O41" t="n">
         <v>4867.965301531018</v>
@@ -7472,25 +7472,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1860.592598092166</v>
+        <v>2249.033564401587</v>
       </c>
       <c r="C42" t="n">
-        <v>1495.845211783561</v>
+        <v>1884.286178092982</v>
       </c>
       <c r="D42" t="n">
-        <v>1144.393002795983</v>
+        <v>1532.833969105403</v>
       </c>
       <c r="E42" t="n">
-        <v>798.259571258697</v>
+        <v>1186.700537568118</v>
       </c>
       <c r="F42" t="n">
-        <v>455.192659806296</v>
+        <v>843.6336261157169</v>
       </c>
       <c r="G42" t="n">
-        <v>455.192659806296</v>
+        <v>605.0488225531531</v>
       </c>
       <c r="H42" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I42" t="n">
         <v>142.72</v>
@@ -7605,7 +7605,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="T43" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U43" t="n">
         <v>142.72</v>
@@ -7642,10 +7642,10 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F44" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G44" t="n">
-        <v>515.0831808375176</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H44" t="n">
         <v>143.117519933622</v>
@@ -7654,25 +7654,25 @@
         <v>142.72</v>
       </c>
       <c r="J44" t="n">
-        <v>142.72</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K44" t="n">
-        <v>1341.38084894932</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L44" t="n">
-        <v>2397.880521846721</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M44" t="n">
-        <v>3583.679018278787</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N44" t="n">
-        <v>4882.77039701827</v>
+        <v>3601.077653154245</v>
       </c>
       <c r="O44" t="n">
-        <v>5835.812941040226</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P44" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q44" t="n">
         <v>7136</v>
@@ -7709,19 +7709,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1423.8520496984</v>
+        <v>1177.46572269285</v>
       </c>
       <c r="C45" t="n">
-        <v>1059.104663389794</v>
+        <v>812.7183363842444</v>
       </c>
       <c r="D45" t="n">
-        <v>707.6524544022161</v>
+        <v>812.7183363842444</v>
       </c>
       <c r="E45" t="n">
-        <v>361.5190228649306</v>
+        <v>812.7183363842444</v>
       </c>
       <c r="F45" t="n">
-        <v>142.72</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G45" t="n">
         <v>142.72</v>
@@ -7757,28 +7757,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R45" t="n">
-        <v>4300.369696020461</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S45" t="n">
-        <v>4300.369696020461</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="T45" t="n">
-        <v>3899.375469909866</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="U45" t="n">
-        <v>3495.26063450567</v>
+        <v>2860.433341190699</v>
       </c>
       <c r="V45" t="n">
-        <v>3076.562990877872</v>
+        <v>2441.735697562901</v>
       </c>
       <c r="W45" t="n">
-        <v>2639.822442484106</v>
+        <v>2004.995149169134</v>
       </c>
       <c r="X45" t="n">
-        <v>2215.718665266542</v>
+        <v>1580.891371951571</v>
       </c>
       <c r="Y45" t="n">
-        <v>1812.293016007821</v>
+        <v>1177.46572269285</v>
       </c>
     </row>
     <row r="46">
@@ -7851,7 +7851,7 @@
         <v>229.7065938790994</v>
       </c>
       <c r="W46" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X46" t="n">
         <v>142.72</v>
@@ -9412,7 +9412,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M20" t="n">
         <v>1060.271045550332</v>
@@ -9895,7 +9895,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O26" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>870.5779326741233</v>
@@ -10135,7 +10135,7 @@
         <v>1032.917105959907</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
         <v>716.8751175230994</v>
@@ -11074,7 +11074,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
-        <v>1060.271045550332</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N41" t="n">
         <v>1096.663422488788</v>
@@ -11302,7 +11302,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
         <v>716.8751175230994</v>
@@ -23354,16 +23354,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>148.3576011193884</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S12" t="n">
-        <v>427.97673816528</v>
+        <v>118.6288049570473</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23439,10 +23439,10 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H13" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I13" t="n">
-        <v>124.2574857538132</v>
+        <v>38.14075781350486</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
-        <v>232.6726267566984</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F15" t="n">
         <v>339.6362423378769</v>
@@ -23597,7 +23597,7 @@
         <v>323.662110682525</v>
       </c>
       <c r="H15" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>145.6010009740521</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>396.9842838494889</v>
+        <v>251.1516598401413</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>332.021383501614</v>
       </c>
       <c r="T16" t="n">
-        <v>116.4662709005433</v>
+        <v>202.5829988408516</v>
       </c>
       <c r="U16" t="n">
         <v>150.8633925383038</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23822,22 +23822,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>14.29460928113821</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I18" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S18" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>377.6179789985903</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23885,7 +23885,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23955,10 +23955,10 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W19" t="n">
-        <v>140.2560818984013</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -24053,7 +24053,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>169.8280731277762</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24068,13 +24068,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,13 +24116,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>399.3913927661343</v>
+        <v>71.94602475175958</v>
       </c>
     </row>
     <row r="22">
@@ -24150,10 +24150,10 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H22" t="n">
-        <v>213.286332108497</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I22" t="n">
-        <v>38.14075781350486</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24290,7 +24290,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>93.25294597945935</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24299,19 +24299,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>226.5473686719977</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U24" t="n">
         <v>400.0736870501537</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H25" t="n">
-        <v>127.1696041681887</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I25" t="n">
         <v>124.2574857538132</v>
@@ -24527,19 +24527,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.7523124482483</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>229.5832235560335</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>323.662110682525</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U27" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H28" t="n">
-        <v>127.1696041681886</v>
+        <v>127.1696041681887</v>
       </c>
       <c r="I28" t="n">
         <v>124.2574857538132</v>
@@ -24767,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>84.64812746062375</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F30" t="n">
-        <v>169.828073127776</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G30" t="n">
         <v>323.662110682525</v>
@@ -24785,7 +24785,7 @@
         <v>312.1045333535693</v>
       </c>
       <c r="I30" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24833,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H31" t="n">
-        <v>127.1696041681887</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I31" t="n">
         <v>124.2574857538132</v>
@@ -25010,16 +25010,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>229.5832235560335</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H33" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>145.6010009740521</v>
@@ -25049,13 +25049,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U33" t="n">
         <v>400.0736870501537</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>66.04851032080217</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25241,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>76.48351417790042</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>126.4859550330791</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F36" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G36" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T36" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>213.286332108497</v>
       </c>
       <c r="I37" t="n">
-        <v>38.14075781350486</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8633925383038</v>
+        <v>64.74666459799546</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
@@ -25475,7 +25475,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.5565566463266</v>
+        <v>164.6829253237114</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25487,16 +25487,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G39" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25544,7 +25544,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.4453912205491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25608,7 +25608,7 @@
         <v>332.021383501614</v>
       </c>
       <c r="T40" t="n">
-        <v>202.5829988408516</v>
+        <v>116.4662709005433</v>
       </c>
       <c r="U40" t="n">
         <v>150.8633925383038</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>140.2560818984013</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25712,7 +25712,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25727,13 +25727,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>323.662110682525</v>
+        <v>87.46315515558683</v>
       </c>
       <c r="H42" t="n">
-        <v>2.756600145336279</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>332.021383501614</v>
       </c>
       <c r="T43" t="n">
-        <v>202.5829988408516</v>
+        <v>116.4662709005433</v>
       </c>
       <c r="U43" t="n">
-        <v>64.74666459799546</v>
+        <v>150.8633925383038</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
@@ -25949,22 +25949,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F45" t="n">
-        <v>123.0252097015956</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>312.1045333535693</v>
@@ -25997,16 +25997,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>217.7889228606471</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26091,10 +26091,10 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>140.2560818984013</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
-        <v>247.4436454301076</v>
+        <v>161.3269174897992</v>
       </c>
       <c r="Y46" t="n">
         <v>287.4653528494624</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15961.27270175422</v>
+        <v>1353830.318357539</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31922.54540350843</v>
+        <v>2707660.636715078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47883.81810526262</v>
+        <v>4061490.955072618</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67184.90268414964</v>
+        <v>5169275.347392689</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86485.98726303659</v>
+        <v>6277059.739712759</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>105787.0718419236</v>
+        <v>7384844.132032826</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125088.1564208105</v>
+        <v>8492628.52435289</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144389.2409996975</v>
+        <v>9600412.916672954</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>163690.3255785845</v>
+        <v>10708197.30899302</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182991.4101574715</v>
+        <v>11815981.70131308</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>202292.4947363586</v>
+        <v>12923766.09363314</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221593.5793152456</v>
+        <v>14031550.48595321</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240894.6638941328</v>
+        <v>15139334.87827328</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260195.7484730202</v>
+        <v>16247119.27059336</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>279496.8330519075</v>
+        <v>17354903.66291344</v>
       </c>
     </row>
   </sheetData>
@@ -26319,25 +26319,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>850079.502224502</v>
+      </c>
+      <c r="C2" t="n">
+        <v>850079.502224502</v>
+      </c>
+      <c r="D2" t="n">
         <v>850079.5022245022</v>
-      </c>
-      <c r="C2" t="n">
-        <v>850079.5022245019</v>
-      </c>
-      <c r="D2" t="n">
-        <v>850079.502224502</v>
       </c>
       <c r="E2" t="n">
         <v>695585.5486660912</v>
       </c>
       <c r="F2" t="n">
-        <v>695585.5486660915</v>
+        <v>695585.5486660913</v>
       </c>
       <c r="G2" t="n">
         <v>695585.5486660913</v>
       </c>
       <c r="H2" t="n">
-        <v>695585.5486660914</v>
+        <v>695585.5486660913</v>
       </c>
       <c r="I2" t="n">
         <v>695585.5486660913</v>
@@ -26346,10 +26346,10 @@
         <v>695585.5486660914</v>
       </c>
       <c r="K2" t="n">
-        <v>695585.5486660913</v>
+        <v>695585.5486660914</v>
       </c>
       <c r="L2" t="n">
-        <v>695585.5486660913</v>
+        <v>695585.5486660914</v>
       </c>
       <c r="M2" t="n">
         <v>695585.5486660912</v>
@@ -26358,7 +26358,7 @@
         <v>695585.5486660912</v>
       </c>
       <c r="O2" t="n">
-        <v>695585.5486660909</v>
+        <v>695585.5486660911</v>
       </c>
       <c r="P2" t="n">
         <v>695585.5486660912</v>
@@ -26432,7 +26432,7 @@
         <v>131325.2342200931</v>
       </c>
       <c r="E4" t="n">
-        <v>1113.6925960066</v>
+        <v>1113.692596006615</v>
       </c>
       <c r="F4" t="n">
         <v>1113.692596006615</v>
@@ -26441,7 +26441,7 @@
         <v>1113.692596006615</v>
       </c>
       <c r="H4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006604</v>
       </c>
       <c r="I4" t="n">
         <v>1113.692596006615</v>
@@ -26453,19 +26453,19 @@
         <v>1113.692596006615</v>
       </c>
       <c r="L4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006605</v>
       </c>
       <c r="M4" t="n">
         <v>1113.692596006615</v>
       </c>
       <c r="N4" t="n">
-        <v>1113.692596006605</v>
+        <v>1113.692596006615</v>
       </c>
       <c r="O4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006608</v>
       </c>
       <c r="P4" t="n">
-        <v>1113.692596006605</v>
+        <v>1113.69259600662</v>
       </c>
     </row>
     <row r="5">
@@ -26530,16 +26530,16 @@
         <v>-1015270.844785848</v>
       </c>
       <c r="C6" t="n">
-        <v>555073.5545624946</v>
+        <v>555073.5545624947</v>
       </c>
       <c r="D6" t="n">
-        <v>555600.6680044089</v>
+        <v>555600.6680044091</v>
       </c>
       <c r="E6" t="n">
+        <v>564945.8560700845</v>
+      </c>
+      <c r="F6" t="n">
         <v>564945.8560700846</v>
-      </c>
-      <c r="F6" t="n">
-        <v>564945.8560700848</v>
       </c>
       <c r="G6" t="n">
         <v>564945.8560700846</v>
@@ -26548,28 +26548,28 @@
         <v>564945.8560700847</v>
       </c>
       <c r="I6" t="n">
-        <v>564945.8560700847</v>
+        <v>564945.8560700846</v>
       </c>
       <c r="J6" t="n">
-        <v>-63022.14392991521</v>
+        <v>-63022.14392991504</v>
       </c>
       <c r="K6" t="n">
         <v>564945.8560700847</v>
       </c>
       <c r="L6" t="n">
-        <v>564945.8560700846</v>
+        <v>564945.8560700848</v>
       </c>
       <c r="M6" t="n">
         <v>564945.8560700845</v>
       </c>
       <c r="N6" t="n">
-        <v>564945.8560700846</v>
+        <v>564945.8560700845</v>
       </c>
       <c r="O6" t="n">
-        <v>564945.8560700843</v>
+        <v>564945.8560700845</v>
       </c>
       <c r="P6" t="n">
-        <v>564945.8560700846</v>
+        <v>564945.8560700845</v>
       </c>
     </row>
   </sheetData>
@@ -27590,16 +27590,16 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>245.1003539598603</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>323.662110682525</v>
@@ -27650,7 +27650,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>223.6366838522177</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27684,16 +27684,16 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H4" t="n">
-        <v>213.286332108497</v>
+        <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>124.2574857538132</v>
+        <v>365.0299739076134</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>113.6596218381698</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L4" t="n">
         <v>164.6127396470317</v>
@@ -27827,25 +27827,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H6" t="n">
-        <v>312.1045333535693</v>
+        <v>35.65274836867377</v>
       </c>
       <c r="I6" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27881,13 +27881,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>169.2931529440637</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27924,13 +27924,13 @@
         <v>213.286332108497</v>
       </c>
       <c r="I7" t="n">
-        <v>400</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>237.9171075919832</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L7" t="n">
         <v>164.6127396470317</v>
@@ -27954,13 +27954,13 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>332.021383501614</v>
+        <v>400</v>
       </c>
       <c r="T7" t="n">
-        <v>202.5829988408516</v>
+        <v>400</v>
       </c>
       <c r="U7" t="n">
-        <v>150.8633925383038</v>
+        <v>312.9539309260726</v>
       </c>
       <c r="V7" t="n">
         <v>199.1703102162162</v>
@@ -28109,7 +28109,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>169.293152944064</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -28118,19 +28118,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>169.9017601779296</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>400</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28140,10 +28140,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C10" t="n">
-        <v>400</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D10" t="n">
         <v>285.5362180555555</v>
@@ -28167,10 +28167,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>86.17346579286669</v>
+        <v>400</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6127396470317</v>
+        <v>210.2937449868156</v>
       </c>
       <c r="M10" t="n">
         <v>247.6210768183003</v>
@@ -28191,7 +28191,7 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>332.021383501614</v>
+        <v>400</v>
       </c>
       <c r="T10" t="n">
         <v>202.5829988408516</v>
@@ -28203,13 +28203,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W10" t="n">
-        <v>301.1633657185985</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X10" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y10" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="11">
@@ -31180,25 +31180,25 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K2" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.8067170160266</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>317.0152569240564</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>654.1904969363086</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q2" t="n">
         <v>419.2874243890514</v>
@@ -31417,7 +31417,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -31429,13 +31429,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>692.7990494593133</v>
+        <v>317.015256924057</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>512.0915812621646</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q5" t="n">
         <v>419.2874243890514</v>
@@ -31654,19 +31654,19 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K8" t="n">
-        <v>318.6605491057414</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>612.7184565454758</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N8" t="n">
-        <v>692.7990494593133</v>
+        <v>193.5843697128627</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -31675,7 +31675,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R8" t="n">
         <v>243.8963657999445</v>
@@ -31894,16 +31894,16 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K11" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>118.9783773327708</v>
+        <v>182.552661367823</v>
       </c>
       <c r="M11" t="n">
-        <v>681.7673411142738</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -31912,7 +31912,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R11" t="n">
         <v>243.8963657999445</v>
@@ -32128,7 +32128,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -32137,19 +32137,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>373.0425517481378</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>692.7990494593133</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>182.5526613678223</v>
       </c>
       <c r="P14" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R14" t="n">
         <v>243.8963657999445</v>
@@ -32365,7 +32365,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -32374,19 +32374,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>411.6511042711433</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>221.1612138908272</v>
       </c>
       <c r="O17" t="n">
         <v>654.1904969363086</v>
       </c>
       <c r="P17" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R17" t="n">
         <v>243.8963657999445</v>
@@ -32602,7 +32602,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J20" t="n">
-        <v>215.7560390789629</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -32614,10 +32614,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>692.7990494593133</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>654.1904969363086</v>
+        <v>317.0152569240572</v>
       </c>
       <c r="P20" t="n">
         <v>558.3364539030787</v>
@@ -32842,16 +32842,16 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K23" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>118.978377332769</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>681.7673411142738</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>193.5843697128627</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -32860,7 +32860,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R23" t="n">
         <v>243.8963657999445</v>
@@ -33076,13 +33076,13 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K26" t="n">
-        <v>373.0425517481378</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2.942816488341577</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -33091,13 +33091,13 @@
         <v>692.7990494593133</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P26" t="n">
         <v>558.3364539030787</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R26" t="n">
         <v>243.8963657999445</v>
@@ -33313,28 +33313,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K29" t="n">
-        <v>249.6116645369418</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>398.6530370649557</v>
       </c>
       <c r="M29" t="n">
-        <v>681.7673411142738</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>692.7990494593133</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R29" t="n">
         <v>243.8963657999445</v>
@@ -33550,16 +33550,16 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K32" t="n">
-        <v>249.6116645369436</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>681.7673411142738</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>692.7990494593133</v>
@@ -33568,10 +33568,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>182.5526613678218</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R32" t="n">
         <v>243.8963657999445</v>
@@ -33790,19 +33790,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>18.19816449302334</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>692.7990494593133</v>
+        <v>550.7001337851705</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -34033,10 +34033,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>349.0168577001537</v>
       </c>
       <c r="N38" t="n">
-        <v>646.5541768184003</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -34261,7 +34261,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -34273,10 +34273,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>646.5541768184003</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>140.2251253727591</v>
       </c>
       <c r="P41" t="n">
         <v>558.3364539030787</v>
@@ -34498,28 +34498,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J44" t="n">
-        <v>35.04300624509033</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K44" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>150.9799781088673</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>681.7673411142738</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>692.7990494593133</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>317.0152569240572</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R44" t="n">
         <v>243.8963657999445</v>
@@ -34828,25 +34828,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K2" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>972.998125672211</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M2" t="n">
-        <v>516.0089179080152</v>
+        <v>833.0241748320716</v>
       </c>
       <c r="N2" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O2" t="n">
-        <v>1616.859733322123</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P2" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q2" t="n">
         <v>862.3168133311397</v>
@@ -34980,16 +34980,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>186.713667891503</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>240.7724881538002</v>
       </c>
       <c r="J4" t="n">
-        <v>487.8652463425246</v>
+        <v>87.86524634252459</v>
       </c>
       <c r="K4" t="n">
-        <v>27.48615604530313</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -35065,25 +35065,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K5" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M5" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N5" t="n">
-        <v>1312.213513878266</v>
+        <v>936.4297213430098</v>
       </c>
       <c r="O5" t="n">
         <v>962.6692363858147</v>
       </c>
       <c r="P5" t="n">
-        <v>1382.382453895606</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q5" t="n">
         <v>862.3168133311397</v>
@@ -35220,13 +35220,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>275.7425142461868</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>87.86524634252459</v>
       </c>
       <c r="K7" t="n">
-        <v>151.7436417991165</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35250,13 +35250,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>67.97861649838602</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.4170011591484</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>162.0905383877688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -35302,19 +35302,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K8" t="n">
-        <v>1035.535666628841</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>1528.90986520166</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M8" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N8" t="n">
-        <v>1312.213513878266</v>
+        <v>812.9988341318154</v>
       </c>
       <c r="O8" t="n">
         <v>962.6692363858147</v>
@@ -35323,7 +35323,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q8" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35436,10 +35436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2747533519553</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -35463,10 +35463,10 @@
         <v>87.86524634252459</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>313.8265342071333</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>45.68100533978386</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35487,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>67.97861649838602</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -35499,13 +35499,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>74.79055587988884</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -35542,16 +35542,16 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K11" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.169785988955</v>
+        <v>1098.744070024007</v>
       </c>
       <c r="M11" t="n">
-        <v>1197.776259022289</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N11" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O11" t="n">
         <v>962.6692363858147</v>
@@ -35560,7 +35560,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q11" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35776,28 +35776,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K14" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M14" t="n">
-        <v>889.051469656153</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N14" t="n">
         <v>1312.213513878266</v>
       </c>
       <c r="O14" t="n">
-        <v>962.6692363858147</v>
+        <v>1145.221897753637</v>
       </c>
       <c r="P14" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q14" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36013,28 +36013,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K17" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M17" t="n">
-        <v>927.6600221791584</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N17" t="n">
-        <v>619.4144644189528</v>
+        <v>840.57567830978</v>
       </c>
       <c r="O17" t="n">
         <v>1616.859733322123</v>
       </c>
       <c r="P17" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q17" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36250,22 +36250,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>611.0177694200293</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K20" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M20" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N20" t="n">
-        <v>1312.213513878266</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O20" t="n">
-        <v>1616.859733322123</v>
+        <v>1279.684493309872</v>
       </c>
       <c r="P20" t="n">
         <v>1428.627326536521</v>
@@ -36490,16 +36490,16 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K23" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>1035.169785988953</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M23" t="n">
         <v>1197.776259022289</v>
       </c>
       <c r="N23" t="n">
-        <v>619.4144644189528</v>
+        <v>812.9988341318154</v>
       </c>
       <c r="O23" t="n">
         <v>962.6692363858147</v>
@@ -36508,7 +36508,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q23" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36724,13 +36724,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K26" t="n">
-        <v>1089.917669271237</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>916.1914086561842</v>
+        <v>919.1342251445258</v>
       </c>
       <c r="M26" t="n">
         <v>516.0089179080152</v>
@@ -36739,13 +36739,13 @@
         <v>1312.213513878266</v>
       </c>
       <c r="O26" t="n">
-        <v>962.6692363858147</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P26" t="n">
         <v>1428.627326536521</v>
       </c>
       <c r="Q26" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36961,28 +36961,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K29" t="n">
-        <v>966.4867820600413</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>916.1914086561842</v>
+        <v>1314.84444572114</v>
       </c>
       <c r="M29" t="n">
-        <v>1197.776259022289</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N29" t="n">
         <v>1312.213513878266</v>
       </c>
       <c r="O29" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P29" t="n">
-        <v>870.2908726334418</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37198,16 +37198,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K32" t="n">
-        <v>966.4867820600431</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
         <v>916.1914086561842</v>
       </c>
       <c r="M32" t="n">
-        <v>1197.776259022289</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N32" t="n">
         <v>1312.213513878266</v>
@@ -37216,10 +37216,10 @@
         <v>962.6692363858147</v>
       </c>
       <c r="P32" t="n">
-        <v>870.2908726334418</v>
+        <v>1052.843534001264</v>
       </c>
       <c r="Q32" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37438,19 +37438,19 @@
         <v>395.2617303410664</v>
       </c>
       <c r="K35" t="n">
-        <v>1210.768534292242</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>934.3895731492075</v>
+        <v>916.1914086561844</v>
       </c>
       <c r="M35" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N35" t="n">
-        <v>1312.213513878266</v>
+        <v>1170.114598204123</v>
       </c>
       <c r="O35" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P35" t="n">
         <v>870.2908726334418</v>
@@ -37672,19 +37672,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561843</v>
       </c>
       <c r="M38" t="n">
-        <v>516.0089179080152</v>
+        <v>865.0257756081688</v>
       </c>
       <c r="N38" t="n">
-        <v>1265.968641237353</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O38" t="n">
         <v>962.6692363858147</v>
@@ -37909,22 +37909,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K41" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
-        <v>516.0089179080152</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1265.968641237353</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O41" t="n">
-        <v>962.6692363858147</v>
+        <v>1102.894361758574</v>
       </c>
       <c r="P41" t="n">
         <v>1428.627326536521</v>
@@ -38146,28 +38146,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K44" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>1067.171386765051</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M44" t="n">
-        <v>1197.776259022289</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N44" t="n">
-        <v>1312.213513878266</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O44" t="n">
-        <v>962.6692363858147</v>
+        <v>1279.684493309872</v>
       </c>
       <c r="P44" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q44" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
